--- a/Aurora/Process/Status 04.07.2022.xlsx
+++ b/Aurora/Process/Status 04.07.2022.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25428"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ravig\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E2FE60E-9844-4C0D-AF0D-D5896BF6F27B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{0E2FE60E-9844-4C0D-AF0D-D5896BF6F27B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{411BCBE9-519B-4A14-8F53-0E233B0CA320}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F0E30B10-E1F5-4969-BC8D-1B18B86FD05E}"/>
   </bookViews>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
   <si>
     <t>Work Items</t>
   </si>
@@ -140,13 +139,16 @@
   </si>
   <si>
     <t>Yet To start</t>
+  </si>
+  <si>
+    <t>nil</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -635,18 +637,18 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="41.7109375" customWidth="1"/>
-    <col min="2" max="2" width="39.5703125" customWidth="1"/>
-    <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="4" width="40" customWidth="1"/>
+    <col min="1" max="1" width="41.69921875" customWidth="1"/>
+    <col min="2" max="2" width="39.546875" customWidth="1"/>
+    <col min="3" max="3" width="36.05078125" customWidth="1"/>
+    <col min="4" max="4" width="39.953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -660,7 +662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -671,16 +673,16 @@
         <v>6</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
     </row>
-    <row r="4" spans="1:4" ht="30.75">
+    <row r="4" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -690,17 +692,17 @@
       <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="D4" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -710,17 +712,17 @@
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="D6" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -728,18 +730,18 @@
         <v>15</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4" ht="30.75">
+    <row r="10" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
@@ -750,36 +752,36 @@
         <v>18</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="C12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>21</v>
       </c>
@@ -789,77 +791,77 @@
       <c r="C14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1">
+      <c r="D14" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1">
+      <c r="C16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1">
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>7</v>
+      <c r="B18" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1">
+      <c r="D18" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>7</v>
+      <c r="B20" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="D20" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>30</v>
       </c>
@@ -873,12 +875,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1">
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>33</v>
       </c>
